--- a/data/trans_orig/P1426-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1426-Edad-trans_orig.xlsx
@@ -912,19 +912,19 @@
         <v>4822</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15211</v>
+        <v>12611</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007018506763562441</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001347345927273294</v>
+        <v>0.001345707876717526</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02213905361617277</v>
+        <v>0.01835369431512319</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -933,19 +933,19 @@
         <v>3748</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12806</v>
+        <v>10745</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006141033045866303</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001542435742410304</v>
+        <v>0.001536879780366388</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02098445589008712</v>
+        <v>0.0176075085442291</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -954,19 +954,19 @@
         <v>8570</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3698</v>
+        <v>3748</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18168</v>
+        <v>18157</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006605752919870676</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002850370319641608</v>
+        <v>0.002888722845869965</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01400417747291295</v>
+        <v>0.01399526697623718</v>
       </c>
     </row>
     <row r="8">
@@ -983,19 +983,19 @@
         <v>682265</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>671876</v>
+        <v>674476</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>686161</v>
+        <v>686162</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9929814932364376</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9778609463838268</v>
+        <v>0.9816463056848769</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9986526540727266</v>
+        <v>0.9986542921232825</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>568</v>
@@ -1004,19 +1004,19 @@
         <v>606507</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>597449</v>
+        <v>599510</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>609314</v>
+        <v>609317</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9938589669541337</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9790155441099129</v>
+        <v>0.9823924914557709</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9984575642575897</v>
+        <v>0.9984631202196337</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1232</v>
@@ -1025,19 +1025,19 @@
         <v>1288772</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1279174</v>
+        <v>1279185</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1293644</v>
+        <v>1293594</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9933942470801294</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9859958225270873</v>
+        <v>0.9860047330237628</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9971496296803585</v>
+        <v>0.9971112771541299</v>
       </c>
     </row>
     <row r="9">
@@ -1129,19 +1129,19 @@
         <v>4946</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11049</v>
+        <v>11394</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007252962391112581</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002685057201738643</v>
+        <v>0.00267980033574993</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0162038859528777</v>
+        <v>0.01670966714252725</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1150,19 +1150,19 @@
         <v>4723</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1050</v>
+        <v>1708</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11927</v>
+        <v>12025</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006656631173043586</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001479830983948869</v>
+        <v>0.002407130021956868</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01680927711342581</v>
+        <v>0.0169461673439062</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1171,19 +1171,19 @@
         <v>9669</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4687</v>
+        <v>4584</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17551</v>
+        <v>17609</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006948858571483158</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003368253778418119</v>
+        <v>0.003294684583277249</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01261362283077699</v>
+        <v>0.01265516779641603</v>
       </c>
     </row>
     <row r="11">
@@ -1200,19 +1200,19 @@
         <v>676917</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>670814</v>
+        <v>670469</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>680032</v>
+        <v>680036</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9927470376088874</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9837961140471225</v>
+        <v>0.9832903328574727</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9973149427982614</v>
+        <v>0.9973201996642501</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>662</v>
@@ -1221,19 +1221,19 @@
         <v>704851</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>697647</v>
+        <v>697549</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>708524</v>
+        <v>707866</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9933433688269564</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9831907228865739</v>
+        <v>0.9830538326560934</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9985201690160511</v>
+        <v>0.9975928699780432</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1308</v>
@@ -1242,19 +1242,19 @@
         <v>1381768</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1373886</v>
+        <v>1373828</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1386750</v>
+        <v>1386853</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9930511414285168</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9873863771692225</v>
+        <v>0.987344832203584</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9966317462215819</v>
+        <v>0.9967053154167229</v>
       </c>
     </row>
     <row r="12">
@@ -1346,19 +1346,19 @@
         <v>4151</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1040</v>
+        <v>1066</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9461</v>
+        <v>10298</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00675412689054</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001692266023655529</v>
+        <v>0.001734821957610033</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01539386682779297</v>
+        <v>0.01675467503448523</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1367,19 +1367,19 @@
         <v>6237</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2897</v>
+        <v>2281</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12858</v>
+        <v>13441</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01015295674439476</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004716542859648893</v>
+        <v>0.003713564487132479</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02093303056207737</v>
+        <v>0.02188108991744309</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -1388,19 +1388,19 @@
         <v>10388</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5169</v>
+        <v>5168</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18348</v>
+        <v>17854</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008453053892348654</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004206341781930576</v>
+        <v>0.004205501156305759</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01493035132923959</v>
+        <v>0.01452859803569346</v>
       </c>
     </row>
     <row r="14">
@@ -1417,19 +1417,19 @@
         <v>610466</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>605156</v>
+        <v>604319</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>613577</v>
+        <v>613551</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.99324587310946</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9846061331722074</v>
+        <v>0.983245324965515</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9983077339763445</v>
+        <v>0.99826517804239</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>532</v>
@@ -1438,19 +1438,19 @@
         <v>608027</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>601406</v>
+        <v>600823</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>611367</v>
+        <v>611983</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9898470432556052</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9790669694379228</v>
+        <v>0.9781189100825574</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9952834571403512</v>
+        <v>0.9962864355128711</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1076</v>
@@ -1459,19 +1459,19 @@
         <v>1218492</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1210532</v>
+        <v>1211026</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1223711</v>
+        <v>1223712</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9915469461076514</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.98506964867076</v>
+        <v>0.9854714019643065</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9957936582180694</v>
+        <v>0.9957944988436942</v>
       </c>
     </row>
     <row r="15">
@@ -1563,19 +1563,19 @@
         <v>10867</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5484</v>
+        <v>5348</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19318</v>
+        <v>19163</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02530487974022493</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01277028616874437</v>
+        <v>0.01245282584162332</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04498547052128765</v>
+        <v>0.04462321199896077</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1584,19 +1584,19 @@
         <v>6256</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13636</v>
+        <v>12705</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01396982057636133</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00480541833486123</v>
+        <v>0.004804464369194993</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03045169853336565</v>
+        <v>0.02837117093165742</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -1605,19 +1605,19 @@
         <v>17122</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10546</v>
+        <v>9740</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27618</v>
+        <v>26356</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01951866135476144</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01202225979529463</v>
+        <v>0.01110289633751251</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03148372697169728</v>
+        <v>0.03004476757341688</v>
       </c>
     </row>
     <row r="17">
@@ -1634,19 +1634,19 @@
         <v>418562</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>410111</v>
+        <v>410266</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>423945</v>
+        <v>424081</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9746951202597751</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9550145294787125</v>
+        <v>0.9553767880010396</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9872297138312557</v>
+        <v>0.9875471741583767</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>400</v>
@@ -1655,19 +1655,19 @@
         <v>441544</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>434164</v>
+        <v>435095</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>445648</v>
+        <v>445649</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9860301794236387</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9695483014666348</v>
+        <v>0.9716288290683426</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9951945816651387</v>
+        <v>0.995195535630805</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>783</v>
@@ -1676,19 +1676,19 @@
         <v>860107</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>849611</v>
+        <v>850873</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>866683</v>
+        <v>867489</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9804813386452386</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.968516273028302</v>
+        <v>0.969955232426583</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9879777402047053</v>
+        <v>0.9888971036624874</v>
       </c>
     </row>
     <row r="18">
@@ -1780,19 +1780,19 @@
         <v>17387</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9208</v>
+        <v>10231</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27131</v>
+        <v>29123</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05612669803343825</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02972492448229643</v>
+        <v>0.03302723013125081</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0875794016070621</v>
+        <v>0.09401092820420924</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -1801,19 +1801,19 @@
         <v>6891</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2944</v>
+        <v>2916</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13757</v>
+        <v>13874</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01946691097598075</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008317875477292075</v>
+        <v>0.008237493494130776</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03886261003523516</v>
+        <v>0.03919355433172754</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -1822,19 +1822,19 @@
         <v>24278</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15137</v>
+        <v>15948</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>38008</v>
+        <v>36367</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03657598045594442</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02280360159333071</v>
+        <v>0.02402531280640754</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05726012898211622</v>
+        <v>0.05478767918973464</v>
       </c>
     </row>
     <row r="20">
@@ -1851,19 +1851,19 @@
         <v>292399</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>282655</v>
+        <v>280663</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>300578</v>
+        <v>299555</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9438733019665617</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9124205983929379</v>
+        <v>0.9059890717957907</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9702750755177036</v>
+        <v>0.9669727698687492</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>337</v>
@@ -1872,19 +1872,19 @@
         <v>347105</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>340239</v>
+        <v>340122</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>351052</v>
+        <v>351080</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9805330890240193</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9611373899647647</v>
+        <v>0.9608064456682727</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9916821245227079</v>
+        <v>0.9917625065058692</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>604</v>
@@ -1893,19 +1893,19 @@
         <v>639504</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>625774</v>
+        <v>627415</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>648645</v>
+        <v>647834</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9634240195440555</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9427398710178837</v>
+        <v>0.9452123208102653</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9771963984066693</v>
+        <v>0.9759746871935924</v>
       </c>
     </row>
     <row r="21">
@@ -1997,19 +1997,19 @@
         <v>10604</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5311</v>
+        <v>5215</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18862</v>
+        <v>19047</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04243952881488197</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02125478744760021</v>
+        <v>0.02087380427976752</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07549465235093589</v>
+        <v>0.07623162802928762</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -2018,19 +2018,19 @@
         <v>38011</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27461</v>
+        <v>26557</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>51477</v>
+        <v>51865</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09771872611206195</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07059872519538239</v>
+        <v>0.06827286188221558</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1323380614073484</v>
+        <v>0.1333360269676986</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>44</v>
@@ -2039,19 +2039,19 @@
         <v>48614</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>34983</v>
+        <v>36242</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>64184</v>
+        <v>64149</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07609864276905905</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05476051037412224</v>
+        <v>0.05673234942046688</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1004709881563693</v>
+        <v>0.1004168963631057</v>
       </c>
     </row>
     <row r="23">
@@ -2068,19 +2068,19 @@
         <v>239247</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>230989</v>
+        <v>230804</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>244540</v>
+        <v>244636</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.957560471185118</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9245053476490641</v>
+        <v>0.9237683719707126</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9787452125523998</v>
+        <v>0.9791261957202325</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>316</v>
@@ -2089,19 +2089,19 @@
         <v>350968</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>337502</v>
+        <v>337114</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>361518</v>
+        <v>362422</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9022812738879381</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8676619385926514</v>
+        <v>0.8666639730323012</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9294012748046175</v>
+        <v>0.9317271381177844</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>528</v>
@@ -2110,19 +2110,19 @@
         <v>590216</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>574646</v>
+        <v>574681</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>603847</v>
+        <v>602588</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9239013572309409</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8995290118436305</v>
+        <v>0.8995831036368934</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9452394896258776</v>
+        <v>0.943267650579533</v>
       </c>
     </row>
     <row r="24">
@@ -2214,19 +2214,19 @@
         <v>52777</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>38646</v>
+        <v>38413</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>69628</v>
+        <v>67470</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01540120677617016</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01127767184236873</v>
+        <v>0.01120961007590254</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0203188953073588</v>
+        <v>0.01968892900750232</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>60</v>
@@ -2235,19 +2235,19 @@
         <v>65865</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>51951</v>
+        <v>51096</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>85101</v>
+        <v>83436</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01852691137210892</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01461306786802217</v>
+        <v>0.01437262497095914</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02393786466400844</v>
+        <v>0.02346933955258838</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>107</v>
@@ -2256,19 +2256,19 @@
         <v>118642</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>96523</v>
+        <v>95364</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>142637</v>
+        <v>141798</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01699278265991985</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01382473261360779</v>
+        <v>0.0136588499028152</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02042966418565298</v>
+        <v>0.02030944204941523</v>
       </c>
     </row>
     <row r="26">
@@ -2285,19 +2285,19 @@
         <v>3374002</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3357151</v>
+        <v>3359309</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3388133</v>
+        <v>3388366</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9845987932238298</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9796811046926411</v>
+        <v>0.9803110709924974</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9887223281576311</v>
+        <v>0.9887903899240974</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3236</v>
@@ -2306,19 +2306,19 @@
         <v>3489233</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3469997</v>
+        <v>3471662</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3503147</v>
+        <v>3504002</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9814730886278911</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9760621353359915</v>
+        <v>0.9765306604474115</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9853869321319778</v>
+        <v>0.9856273750290409</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6398</v>
@@ -2327,19 +2327,19 @@
         <v>6863235</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6839240</v>
+        <v>6840079</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6885354</v>
+        <v>6886513</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9830072173400801</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9795703358143472</v>
+        <v>0.9796905579505848</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9861752673863922</v>
+        <v>0.9863411500971849</v>
       </c>
     </row>
     <row r="27">
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5092</v>
+        <v>5857</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002400266256888213</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01213858949022377</v>
+        <v>0.01396395852158372</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5391</v>
+        <v>5751</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001235035143384284</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006612513028804408</v>
+        <v>0.007053978132312457</v>
       </c>
     </row>
     <row r="5">
@@ -2737,7 +2737,7 @@
         <v>418456</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>414371</v>
+        <v>413606</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -2746,7 +2746,7 @@
         <v>0.9975997337431118</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9878614105097762</v>
+        <v>0.9860360414784158</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2771,7 +2771,7 @@
         <v>814211</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>809827</v>
+        <v>809467</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>815218</v>
@@ -2780,7 +2780,7 @@
         <v>0.9987649648566157</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9933874869711954</v>
+        <v>0.9929460218676874</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2888,19 +2888,19 @@
         <v>3570</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>920</v>
+        <v>898</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9657</v>
+        <v>8132</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006334705560795593</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001633244393094133</v>
+        <v>0.001592812149704254</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01713645821380744</v>
+        <v>0.01443003997296492</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -2909,19 +2909,19 @@
         <v>3570</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>924</v>
+        <v>901</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8925</v>
+        <v>8930</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003093379323784802</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0008009979578954139</v>
+        <v>0.0007809858410733423</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007734056701142333</v>
+        <v>0.00773831773866701</v>
       </c>
     </row>
     <row r="8">
@@ -2951,19 +2951,19 @@
         <v>559974</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>553887</v>
+        <v>555412</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>562624</v>
+        <v>562646</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9936652944392044</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.98286354178619</v>
+        <v>0.985569960027035</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9983667556069059</v>
+        <v>0.9984071878502957</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1142</v>
@@ -2972,19 +2972,19 @@
         <v>1150470</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1145115</v>
+        <v>1145110</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1153116</v>
+        <v>1153139</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9969066206762152</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9922659432988576</v>
+        <v>0.9922616822613324</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9991990020421045</v>
+        <v>0.9992190141589267</v>
       </c>
     </row>
     <row r="9">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4621</v>
+        <v>4759</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001376237757042381</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.006906262876149478</v>
+        <v>0.007111844188014896</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -3097,19 +3097,19 @@
         <v>3718</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>929</v>
+        <v>965</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8469</v>
+        <v>9207</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005620989913401054</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001404337406196977</v>
+        <v>0.001458735362556154</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01280469910201271</v>
+        <v>0.01392095924756694</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -3118,19 +3118,19 @@
         <v>4638</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1842</v>
+        <v>1825</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10145</v>
+        <v>10125</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003486314247507532</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001384827205599218</v>
+        <v>0.00137140665796352</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007625051648552529</v>
+        <v>0.007610274270070493</v>
       </c>
     </row>
     <row r="11">
@@ -3147,7 +3147,7 @@
         <v>668176</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>664476</v>
+        <v>664338</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>669097</v>
@@ -3156,7 +3156,7 @@
         <v>0.9986237622429576</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9930937371238505</v>
+        <v>0.9928881558119852</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         <v>657668</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>652917</v>
+        <v>652179</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>660457</v>
+        <v>660421</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9943790100865989</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9871953008979871</v>
+        <v>0.986079040752433</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9985956625938031</v>
+        <v>0.9985412646374435</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1298</v>
@@ -3189,19 +3189,19 @@
         <v>1325845</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1320338</v>
+        <v>1320358</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1328641</v>
+        <v>1328658</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9965136857524924</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9923749483514475</v>
+        <v>0.9923897257299296</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9986151727944008</v>
+        <v>0.9986285933420365</v>
       </c>
     </row>
     <row r="12">
@@ -3293,19 +3293,19 @@
         <v>7381</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3118</v>
+        <v>3166</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15240</v>
+        <v>14625</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01142450058910292</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004826528779809022</v>
+        <v>0.004901075154759621</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02358941501507862</v>
+        <v>0.02263817018839008</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -3314,19 +3314,19 @@
         <v>4382</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1111</v>
+        <v>1079</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11066</v>
+        <v>10704</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00675088823575251</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001711621339817831</v>
+        <v>0.001662860798227289</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01704912400911899</v>
+        <v>0.01649099898434971</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -3335,19 +3335,19 @@
         <v>11763</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6303</v>
+        <v>6365</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21433</v>
+        <v>20523</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009082229808373522</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004866864758457998</v>
+        <v>0.004914315407677524</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01654859640127367</v>
+        <v>0.01584643881397843</v>
       </c>
     </row>
     <row r="14">
@@ -3364,19 +3364,19 @@
         <v>638667</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>630808</v>
+        <v>631423</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>642930</v>
+        <v>642882</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9885754994108971</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9764105849849222</v>
+        <v>0.9773618298116099</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.995173471220191</v>
+        <v>0.9950989248452402</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>598</v>
@@ -3385,19 +3385,19 @@
         <v>644695</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>638011</v>
+        <v>638373</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>647966</v>
+        <v>647998</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9932491117642475</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.982950875990881</v>
+        <v>0.9835090010156502</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9982883786601822</v>
+        <v>0.9983371392017727</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1173</v>
@@ -3406,19 +3406,19 @@
         <v>1283362</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1273692</v>
+        <v>1274602</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1288822</v>
+        <v>1288760</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9909177701916265</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.983451403598726</v>
+        <v>0.9841535611860222</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9951331352415419</v>
+        <v>0.9950856845923225</v>
       </c>
     </row>
     <row r="15">
@@ -3510,19 +3510,19 @@
         <v>11804</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5552</v>
+        <v>5565</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21604</v>
+        <v>21535</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02469921026660969</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01161637243194573</v>
+        <v>0.01164402725637538</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04520537370793665</v>
+        <v>0.04505974892418198</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -3531,19 +3531,19 @@
         <v>13953</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7550</v>
+        <v>7630</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22665</v>
+        <v>23709</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02808257909726063</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01519655011750204</v>
+        <v>0.01535773273219283</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04561768479175195</v>
+        <v>0.04771778317118105</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -3552,19 +3552,19 @@
         <v>25757</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16026</v>
+        <v>16181</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38898</v>
+        <v>40210</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02642374897696421</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01644061543248323</v>
+        <v>0.01659947657389838</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03990516280032378</v>
+        <v>0.04125137945706796</v>
       </c>
     </row>
     <row r="17">
@@ -3581,19 +3581,19 @@
         <v>466114</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>456314</v>
+        <v>456383</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>472366</v>
+        <v>472353</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9753007897333903</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9547946262920635</v>
+        <v>0.9549402510758174</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9883836275680543</v>
+        <v>0.9883559727436244</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>421</v>
@@ -3602,19 +3602,19 @@
         <v>482896</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>474184</v>
+        <v>473140</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>489299</v>
+        <v>489219</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9719174209027394</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9543823152082479</v>
+        <v>0.9522822168288189</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.984803449882498</v>
+        <v>0.9846422672678071</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>836</v>
@@ -3623,19 +3623,19 @@
         <v>949010</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>935869</v>
+        <v>934557</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>958741</v>
+        <v>958586</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9735762510230358</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9600948371996763</v>
+        <v>0.958748620542932</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9835593845675168</v>
+        <v>0.9834005234261013</v>
       </c>
     </row>
     <row r="18">
@@ -3727,19 +3727,19 @@
         <v>5964</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2091</v>
+        <v>2009</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11756</v>
+        <v>11215</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01783998580664709</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006255262019325762</v>
+        <v>0.006008308218740256</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03516138944867912</v>
+        <v>0.03354596272336559</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -3748,19 +3748,19 @@
         <v>24566</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16280</v>
+        <v>16741</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35674</v>
+        <v>36024</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06503054283052837</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04309487093673809</v>
+        <v>0.04431497224953391</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09443477792614183</v>
+        <v>0.09536257770098101</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>30</v>
@@ -3769,19 +3769,19 @@
         <v>30531</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21066</v>
+        <v>20539</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41720</v>
+        <v>41473</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04287439046783993</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02958377353600838</v>
+        <v>0.02884322239038912</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05858828472260742</v>
+        <v>0.05824104304615864</v>
       </c>
     </row>
     <row r="20">
@@ -3798,19 +3798,19 @@
         <v>328366</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>322574</v>
+        <v>323115</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>332239</v>
+        <v>332321</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.982160014193353</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9648386105513208</v>
+        <v>0.9664540372766344</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9937447379806742</v>
+        <v>0.9939916917812597</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>330</v>
@@ -3819,19 +3819,19 @@
         <v>353196</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>342088</v>
+        <v>341738</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>361482</v>
+        <v>361021</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9349694571694717</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9055652220738583</v>
+        <v>0.904637422299019</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9569051290632619</v>
+        <v>0.9556850277504662</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>649</v>
@@ -3840,19 +3840,19 @@
         <v>681561</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>670372</v>
+        <v>670619</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>691026</v>
+        <v>691553</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9571256095321601</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9414117152773928</v>
+        <v>0.9417589569538407</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9704162264639917</v>
+        <v>0.9711567776096108</v>
       </c>
     </row>
     <row r="21">
@@ -3944,19 +3944,19 @@
         <v>21960</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14929</v>
+        <v>14471</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30798</v>
+        <v>30406</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08544844903827649</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05809129431129648</v>
+        <v>0.05630651796380737</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1198355813074471</v>
+        <v>0.1183125356690031</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -3965,19 +3965,19 @@
         <v>21978</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13434</v>
+        <v>13502</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34986</v>
+        <v>34381</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05492105687205996</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0335706717714554</v>
+        <v>0.03373970985778316</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08742837152564573</v>
+        <v>0.08591521805610318</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>43</v>
@@ -3986,19 +3986,19 @@
         <v>43938</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31601</v>
+        <v>33113</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>58972</v>
+        <v>59218</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0668593902919182</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04808712682293288</v>
+        <v>0.05038728224843356</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08973618875081875</v>
+        <v>0.09011119219384595</v>
       </c>
     </row>
     <row r="23">
@@ -4015,19 +4015,19 @@
         <v>235038</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>226200</v>
+        <v>226592</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>242069</v>
+        <v>242527</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9145515509617235</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8801644186925528</v>
+        <v>0.8816874643309971</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9419087056887036</v>
+        <v>0.9436934820361927</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>284</v>
@@ -4036,19 +4036,19 @@
         <v>378191</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>365183</v>
+        <v>365788</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>386735</v>
+        <v>386667</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9450789431279401</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9125716284743537</v>
+        <v>0.9140847819438971</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9664293282285445</v>
+        <v>0.9662602901422169</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>560</v>
@@ -4057,19 +4057,19 @@
         <v>613229</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>598195</v>
+        <v>597949</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>625566</v>
+        <v>624054</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9331406097080818</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.910263811249181</v>
+        <v>0.909888807806154</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9519128731770669</v>
+        <v>0.9496127177515663</v>
       </c>
     </row>
     <row r="24">
@@ -4161,19 +4161,19 @@
         <v>49037</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37179</v>
+        <v>38022</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63587</v>
+        <v>65981</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01444669933309404</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01095322904463467</v>
+        <v>0.01120163088602562</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01873331918467006</v>
+        <v>0.01943862124025562</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>65</v>
@@ -4182,19 +4182,19 @@
         <v>72166</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>58453</v>
+        <v>56879</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>93033</v>
+        <v>92349</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02035973878203713</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01649087558858238</v>
+        <v>0.0160469377708171</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02624685951449256</v>
+        <v>0.02605388389876472</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>115</v>
@@ -4203,19 +4203,19 @@
         <v>121203</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>101513</v>
+        <v>98863</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>146573</v>
+        <v>143245</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01746721264200131</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01462957226251833</v>
+        <v>0.01424773078084309</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02112335616540547</v>
+        <v>0.02064375174792035</v>
       </c>
     </row>
     <row r="26">
@@ -4232,19 +4232,19 @@
         <v>3345313</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3330763</v>
+        <v>3328369</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3357171</v>
+        <v>3356328</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9855533006669059</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9812666808153301</v>
+        <v>0.9805613787597445</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9890467709553653</v>
+        <v>0.9887983691139745</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3273</v>
@@ -4253,19 +4253,19 @@
         <v>3472376</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3451509</v>
+        <v>3452193</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3486089</v>
+        <v>3487663</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9796402612179629</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9737531404855079</v>
+        <v>0.973946116101235</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9835091244114177</v>
+        <v>0.9839530622291828</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6454</v>
@@ -4274,19 +4274,19 @@
         <v>6817689</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6792319</v>
+        <v>6795647</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6837379</v>
+        <v>6840029</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9825327873579986</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9788766438345945</v>
+        <v>0.9793562482520796</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9853704277374816</v>
+        <v>0.9857522692191569</v>
       </c>
     </row>
     <row r="27">
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13586</v>
+        <v>12881</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006388269682297491</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03747745353004521</v>
+        <v>0.03553143908280063</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -4658,16 +4658,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10100</v>
+        <v>11565</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.00300637298996205</v>
+        <v>0.003006372989962049</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01311174817075436</v>
+        <v>0.01501409729442051</v>
       </c>
     </row>
     <row r="5">
@@ -4697,7 +4697,7 @@
         <v>360196</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>348926</v>
+        <v>349631</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
@@ -4706,7 +4706,7 @@
         <v>0.9936117303177024</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9625225464699546</v>
+        <v>0.9644685609172</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4718,16 +4718,16 @@
         <v>767989</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>760205</v>
+        <v>758740</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>770305</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.996993627010038</v>
+        <v>0.9969936270100379</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9868882518292462</v>
+        <v>0.9849859027055796</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6723</v>
+        <v>7550</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00256166519773623</v>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01409722640097203</v>
+        <v>0.01583179111246814</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4843,19 +4843,19 @@
         <v>6484</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2536</v>
+        <v>2532</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13018</v>
+        <v>13130</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01293999192141855</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005061807449229836</v>
+        <v>0.005052470515533089</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02597933160076586</v>
+        <v>0.02620264972953196</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -4864,19 +4864,19 @@
         <v>7706</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3515</v>
+        <v>3608</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14934</v>
+        <v>14536</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007879196597401395</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003594405674586939</v>
+        <v>0.003689035871838429</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01527071285113924</v>
+        <v>0.01486302114666107</v>
       </c>
     </row>
     <row r="8">
@@ -4893,16 +4893,16 @@
         <v>475668</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>470167</v>
+        <v>469340</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>476890</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9974383348022636</v>
+        <v>0.9974383348022638</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9859027735990282</v>
+        <v>0.9841682088875321</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4914,19 +4914,19 @@
         <v>494599</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>488065</v>
+        <v>487953</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>498547</v>
+        <v>498551</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9870600080785814</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9740206683992342</v>
+        <v>0.9737973502704681</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.99493819255077</v>
+        <v>0.9949475294844671</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>754</v>
@@ -4935,19 +4935,19 @@
         <v>970267</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>963039</v>
+        <v>963437</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>974458</v>
+        <v>974365</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9921208034025986</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9847292871488607</v>
+        <v>0.985136978853339</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.996405594325413</v>
+        <v>0.9963109641281616</v>
       </c>
     </row>
     <row r="9">
@@ -5039,19 +5039,19 @@
         <v>9791</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4682</v>
+        <v>4450</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18884</v>
+        <v>18066</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.015800328143309</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007555256683064131</v>
+        <v>0.007182048817546024</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03047412632212755</v>
+        <v>0.02915464542416534</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -5060,19 +5060,19 @@
         <v>1960</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5779</v>
+        <v>5857</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.003153694226215012</v>
+        <v>0.003153694226215013</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0007454803016754065</v>
+        <v>0.0007515699411945971</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.009298708258445941</v>
+        <v>0.009423977204811961</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -5081,19 +5081,19 @@
         <v>11751</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6624</v>
+        <v>6102</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21155</v>
+        <v>20305</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.009467741880432833</v>
+        <v>0.009467741880432831</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005337350494796355</v>
+        <v>0.004916094068004959</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01704426239524681</v>
+        <v>0.01635986022744822</v>
       </c>
     </row>
     <row r="11">
@@ -5110,19 +5110,19 @@
         <v>609878</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>600785</v>
+        <v>601603</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>614987</v>
+        <v>615219</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9841996718566909</v>
+        <v>0.9841996718566911</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9695258736778725</v>
+        <v>0.9708453545758347</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.992444743316936</v>
+        <v>0.9928179511824542</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>842</v>
@@ -5131,19 +5131,19 @@
         <v>619528</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>615709</v>
+        <v>615631</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>621025</v>
+        <v>621021</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9968463057737847</v>
+        <v>0.9968463057737851</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.990701291741554</v>
+        <v>0.9905760227951882</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9992545196983248</v>
+        <v>0.9992484300588054</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1378</v>
@@ -5152,19 +5152,19 @@
         <v>1229406</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1220002</v>
+        <v>1220852</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1234533</v>
+        <v>1235055</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9905322581195671</v>
+        <v>0.990532258119567</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9829557376047532</v>
+        <v>0.9836401397725518</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9946626495052036</v>
+        <v>0.9950839059319949</v>
       </c>
     </row>
     <row r="12">
@@ -5256,19 +5256,19 @@
         <v>22194</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14366</v>
+        <v>13748</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33359</v>
+        <v>32591</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0316779713037468</v>
+        <v>0.03167797130374679</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02050531703357486</v>
+        <v>0.01962241173068474</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04761361631854568</v>
+        <v>0.04651797339163921</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -5277,19 +5277,19 @@
         <v>15912</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10981</v>
+        <v>10790</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23913</v>
+        <v>24338</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02161805200937107</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01491921650930726</v>
+        <v>0.01465886875943364</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03248895972023809</v>
+        <v>0.03306609673797631</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>47</v>
@@ -5298,19 +5298,19 @@
         <v>38106</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28143</v>
+        <v>27986</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>51061</v>
+        <v>50539</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02652398932490287</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.019589178583949</v>
+        <v>0.01947988430510294</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0355412726656635</v>
+        <v>0.03517785232816837</v>
       </c>
     </row>
     <row r="14">
@@ -5327,19 +5327,19 @@
         <v>678423</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>667258</v>
+        <v>668026</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>686251</v>
+        <v>686869</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9683220286962533</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9523863836814543</v>
+        <v>0.9534820266083608</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9794946829664257</v>
+        <v>0.9803775882693152</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1114</v>
@@ -5348,19 +5348,19 @@
         <v>720129</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>712128</v>
+        <v>711703</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>725060</v>
+        <v>725251</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9783819479906288</v>
+        <v>0.9783819479906289</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9675110402797621</v>
+        <v>0.9669339032620236</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9850807834906928</v>
+        <v>0.9853411312405663</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1757</v>
@@ -5369,19 +5369,19 @@
         <v>1398552</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1385597</v>
+        <v>1386119</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1408515</v>
+        <v>1408672</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.973476010675097</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9644587273343365</v>
+        <v>0.9648221476718317</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9804108214160511</v>
+        <v>0.9805201156948969</v>
       </c>
     </row>
     <row r="15">
@@ -5473,19 +5473,19 @@
         <v>33759</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24859</v>
+        <v>24626</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44478</v>
+        <v>44479</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05549177356520765</v>
+        <v>0.05549177356520764</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04086172648659184</v>
+        <v>0.04047902239160188</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07311170211591854</v>
+        <v>0.07311293499810306</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -5494,19 +5494,19 @@
         <v>23641</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16947</v>
+        <v>17189</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32277</v>
+        <v>31757</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03900187770770536</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02795840371274219</v>
+        <v>0.02835832526631805</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05324964024828798</v>
+        <v>0.052391828714043</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>80</v>
@@ -5515,19 +5515,19 @@
         <v>57400</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>46788</v>
+        <v>45744</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>71459</v>
+        <v>70136</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04726186887892863</v>
+        <v>0.04726186887892862</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03852418891440147</v>
+        <v>0.03766520569740838</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05883827952314268</v>
+        <v>0.0577485957458249</v>
       </c>
     </row>
     <row r="17">
@@ -5544,19 +5544,19 @@
         <v>574600</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>563881</v>
+        <v>563880</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>583500</v>
+        <v>583733</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9445082264347927</v>
+        <v>0.9445082264347925</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9268882978840813</v>
+        <v>0.9268870650018968</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9591382735134082</v>
+        <v>0.9595209776083981</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>960</v>
@@ -5565,19 +5565,19 @@
         <v>582502</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>573866</v>
+        <v>574386</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>589196</v>
+        <v>588954</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9609981222922946</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9467503597517122</v>
+        <v>0.9476081712859569</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9720415962872578</v>
+        <v>0.9716416747336819</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1580</v>
@@ -5586,19 +5586,19 @@
         <v>1157102</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1143043</v>
+        <v>1144366</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1167714</v>
+        <v>1168758</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9527381311210714</v>
+        <v>0.9527381311210713</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9411617204768571</v>
+        <v>0.942251404254175</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9614758110855984</v>
+        <v>0.9623347943025913</v>
       </c>
     </row>
     <row r="18">
@@ -5690,19 +5690,19 @@
         <v>34877</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26532</v>
+        <v>27223</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>44475</v>
+        <v>44792</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.08585920327772674</v>
+        <v>0.08585920327772673</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06531597643303286</v>
+        <v>0.06701667483420305</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1094872414249917</v>
+        <v>0.1102680748309331</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>56</v>
@@ -5711,19 +5711,19 @@
         <v>30109</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23105</v>
+        <v>23095</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38542</v>
+        <v>38313</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06861949400357184</v>
+        <v>0.06861949400357183</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05265651063792323</v>
+        <v>0.05263444891624337</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08783823562833661</v>
+        <v>0.08731631992246799</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>111</v>
@@ -5732,19 +5732,19 @@
         <v>64986</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>54039</v>
+        <v>54415</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>77862</v>
+        <v>78196</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07690709238354002</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06395169552738623</v>
+        <v>0.06439673247900883</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09214501741694686</v>
+        <v>0.09254070601903429</v>
       </c>
     </row>
     <row r="20">
@@ -5761,19 +5761,19 @@
         <v>371334</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>361736</v>
+        <v>361419</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>379679</v>
+        <v>378988</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9141407967222734</v>
+        <v>0.9141407967222732</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.890512758575008</v>
+        <v>0.8897319251690667</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9346840235669671</v>
+        <v>0.9329833251657969</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>770</v>
@@ -5782,19 +5782,19 @@
         <v>408673</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>400240</v>
+        <v>400469</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>415677</v>
+        <v>415687</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9313805059964282</v>
+        <v>0.9313805059964281</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9121617643716633</v>
+        <v>0.9126836800775321</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9473434893620766</v>
+        <v>0.9473655510837568</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1284</v>
@@ -5803,19 +5803,19 @@
         <v>780007</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>767131</v>
+        <v>766797</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>790954</v>
+        <v>790578</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9230929076164599</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.907854982583053</v>
+        <v>0.9074592939809657</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9360483044726138</v>
+        <v>0.9356032675209912</v>
       </c>
     </row>
     <row r="21">
@@ -5907,19 +5907,19 @@
         <v>62267</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>51561</v>
+        <v>50913</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>73727</v>
+        <v>73271</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2007332424201772</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1662203594304445</v>
+        <v>0.1641301742242794</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2376757284287431</v>
+        <v>0.2362071825692635</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>194</v>
@@ -5928,19 +5928,19 @@
         <v>94089</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>81777</v>
+        <v>81626</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>106359</v>
+        <v>106676</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2028073378481553</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1762692444998285</v>
+        <v>0.1759430866458543</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2292560402187503</v>
+        <v>0.2299393157799756</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>300</v>
@@ -5949,19 +5949,19 @@
         <v>156356</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>139919</v>
+        <v>138169</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>173369</v>
+        <v>173517</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2019762359979791</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1807435548533361</v>
+        <v>0.1784833479708095</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2239532063010158</v>
+        <v>0.2241445428506729</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>247931</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>236471</v>
+        <v>236927</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>258637</v>
+        <v>259285</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7992667575798228</v>
+        <v>0.7992667575798227</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7623242715712569</v>
+        <v>0.7637928174307363</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8337796405695551</v>
+        <v>0.8358698257757204</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>686</v>
@@ -5999,19 +5999,19 @@
         <v>369843</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>357573</v>
+        <v>357256</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>382155</v>
+        <v>382306</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7971926621518447</v>
+        <v>0.7971926621518446</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7707439597812504</v>
+        <v>0.7700606842200247</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8237307555001714</v>
+        <v>0.8240569133541458</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1038</v>
@@ -6020,19 +6020,19 @@
         <v>617774</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>600761</v>
+        <v>600613</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>634211</v>
+        <v>635961</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7980237640020209</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7760467936989845</v>
+        <v>0.7758554571493271</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8192564451466643</v>
+        <v>0.8215166520291906</v>
       </c>
     </row>
     <row r="24">
@@ -6124,19 +6124,19 @@
         <v>164110</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>144913</v>
+        <v>143782</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>189804</v>
+        <v>186969</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04649346519097879</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04105499326965997</v>
+        <v>0.04073453703125983</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05377296798158967</v>
+        <v>0.05296961479724657</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>324</v>
@@ -6145,19 +6145,19 @@
         <v>174510</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>155079</v>
+        <v>156612</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>195944</v>
+        <v>196403</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.04678578250453326</v>
+        <v>0.04678578250453325</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04157642490159796</v>
+        <v>0.04198735241255639</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05253224971897013</v>
+        <v>0.05265527877680524</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>559</v>
@@ -6166,19 +6166,19 @@
         <v>338620</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>310467</v>
+        <v>308259</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>369811</v>
+        <v>370866</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04664365529637695</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04276575126121353</v>
+        <v>0.04246155495986137</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05094008397988608</v>
+        <v>0.05108548229795997</v>
       </c>
     </row>
     <row r="26">
@@ -6195,19 +6195,19 @@
         <v>3365628</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3339934</v>
+        <v>3342769</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3384825</v>
+        <v>3385956</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9535065348090211</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9462270320184102</v>
+        <v>0.9470303852027534</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.95894500673034</v>
+        <v>0.9592654629687402</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5031</v>
@@ -6216,19 +6216,19 @@
         <v>3555471</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3534037</v>
+        <v>3533578</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3574902</v>
+        <v>3573369</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9532142174954668</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9474677502810299</v>
+        <v>0.9473447212231946</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.958423575098402</v>
+        <v>0.9580126475874436</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8169</v>
@@ -6237,19 +6237,19 @@
         <v>6921099</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6889908</v>
+        <v>6888853</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6949252</v>
+        <v>6951460</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9533563447036232</v>
+        <v>0.953356344703623</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9490599160201122</v>
+        <v>0.9489145177020401</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9572342487387864</v>
+        <v>0.9575384450401387</v>
       </c>
     </row>
     <row r="27">
